--- a/biology/Botanique/Phyllanthus_acidus/Phyllanthus_acidus.xlsx
+++ b/biology/Botanique/Phyllanthus_acidus/Phyllanthus_acidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">girembellier
 Le girembellier (Phyllanthus acidus) est une espèce de plantes à fleurs de la famille des Euphorbiaceae, ou des Phyllanthaceae selon la classification phylogénétique. C'est un arbre de Madagascar répandu également dans le sud asiatique. 
-Son fruit est appelé girembelle, surelle, surette, surelle ou groseille étoilée, mais aussi star gooseberry (anglais), grossela (espagnol)[2]. Il est comestible, mais d'un goût assez acide.
+Son fruit est appelé girembelle, surelle, surette, surelle ou groseille étoilée, mais aussi star gooseberry (anglais), grossela (espagnol). Il est comestible, mais d'un goût assez acide.
 Dans la cuisine vietnamienne, la feuille du girembellier est utilisée pour aromatiser les nems chua. En Guadeloupe, la surelle peut être utilisée confite pour sucrer le ti-punch ou pour élaborer le « punch surelle. »
 Phyllanthus acidus ne doit pas être confondu avec Sauropus androgynus avec qui il partage certains de ses noms vernaculaires (ex. : star gooseberry).
 </t>
@@ -515,9 +527,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Phyllanthus acidus tient une place importante dans les cultures asiatiques, aussi a-t-il de nombreux noms vernaculaires parmi les langues parlées dans la région[3], on peut citer :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Phyllanthus acidus tient une place importante dans les cultures asiatiques, aussi a-t-il de nombreux noms vernaculaires parmi les langues parlées dans la région, on peut citer :
 Allemagne : Sternstachelbeerbaum
 Anglais : Country Gooseberry, Indian Gooseberry, Malay Gooseberry, Otaheite Gooseberry, Star Gooseberry, Tahitian Gooseberry, West Indian Gooseberry
 Brésil : Groselha (portugais brésilien)
